--- a/Python/OUTGSRK-XGTC.xlsx
+++ b/Python/OUTGSRK-XGTC.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>//*[@id="myModal_edit_companybank"]/div[2]/div[2]/div/div/div[2]/div[1]/div[1]/input</t>
   </si>
@@ -88,354 +82,1050 @@
     <t>*仅可以使用中英文字母,数字, 下划线和减号, 字数范围2-50</t>
   </si>
   <si>
+    <t>"=IF(B2=C2,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F2=G2,"P","F")</t>
+  </si>
+  <si>
     <t>*仅可以使用中英文字母,空白, 字数范围2-50</t>
   </si>
   <si>
+    <t>"=IF(J2=K2,"P","F")</t>
+  </si>
+  <si>
     <t>*仅可以使用中英文字母, 字数范围2-50</t>
   </si>
   <si>
+    <t>"=IF(N2=O2,"P","F")</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>*仅可以使用10—25个数字</t>
   </si>
   <si>
+    <t>"=IF(R2=S2,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(B3=C3,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F3=G3,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J3=K3,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N3=O3,"P","F")</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>"=IF(R3=S3,"P","F")</t>
+  </si>
+  <si>
     <t>打</t>
   </si>
   <si>
+    <t>"=IF(B4=C4,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F4=G4,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J4=K4,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N4=O4,"P","F")</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
+    <t>"=IF(R4=S4,"P","F")</t>
+  </si>
+  <si>
     <t>d1</t>
   </si>
   <si>
+    <t>"=IF(B5=C5,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F5=G5,"P","F")</t>
+  </si>
+  <si>
     <t>d等待</t>
   </si>
   <si>
+    <t>"=IF(J5=K5,"P","F")</t>
+  </si>
+  <si>
     <t>d想</t>
   </si>
   <si>
+    <t>"=IF(N5=O5,"P","F")</t>
+  </si>
+  <si>
     <t>123456789</t>
   </si>
   <si>
+    <t>"=IF(R5=S5,"P","F")</t>
+  </si>
+  <si>
     <t>1dd</t>
   </si>
   <si>
+    <t>"=IF(B6=C6,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F6=G6,"P","F")</t>
+  </si>
+  <si>
     <t>等待dd</t>
   </si>
   <si>
+    <t>"=IF(J6=K6,"P","F")</t>
+  </si>
+  <si>
     <t>想dd</t>
   </si>
   <si>
+    <t>"=IF(N6=O6,"P","F")</t>
+  </si>
+  <si>
     <t>1234567890</t>
   </si>
   <si>
+    <t>"=IF(R6=S6,"P","F")</t>
+  </si>
+  <si>
     <t>打1212dd</t>
   </si>
   <si>
+    <t>"=IF(B7=C7,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F7=G7,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J7=K7,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N7=O7,"P","F")</t>
+  </si>
+  <si>
     <t>12345678901</t>
   </si>
   <si>
+    <t>"=IF(R7=S7,"P","F")</t>
+  </si>
+  <si>
     <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuv1</t>
   </si>
   <si>
+    <t>"=IF(B8=C8,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F8=G8,"P","F")</t>
+  </si>
+  <si>
     <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuv等</t>
   </si>
   <si>
+    <t>"=IF(J8=K8,"P","F")</t>
+  </si>
+  <si>
     <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuv想</t>
   </si>
   <si>
+    <t>"=IF(N8=O8,"P","F")</t>
+  </si>
+  <si>
     <t>123456789012345678901234</t>
   </si>
   <si>
+    <t>"=IF(R8=S8,"P","F")</t>
+  </si>
+  <si>
     <t>1abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvw</t>
   </si>
   <si>
+    <t>"=IF(B9=C9,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F9=G9,"P","F")</t>
+  </si>
+  <si>
     <t>等abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvw</t>
   </si>
   <si>
+    <t>"=IF(J9=K9,"P","F")</t>
+  </si>
+  <si>
     <t>想abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvw</t>
   </si>
   <si>
+    <t>"=IF(N9=O9,"P","F")</t>
+  </si>
+  <si>
     <t>1234567890123456789012345</t>
   </si>
   <si>
+    <t>"=IF(R9=S9,"P","F")</t>
+  </si>
+  <si>
     <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
   </si>
   <si>
+    <t>"=IF(B10=C10,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F10=G10,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J10=K10,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N10=O10,"P","F")</t>
+  </si>
+  <si>
     <t>12345678901234567890123456</t>
   </si>
   <si>
+    <t>"=IF(R10=S10,"P","F")</t>
+  </si>
+  <si>
     <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一</t>
   </si>
   <si>
+    <t>"=IF(B11=C11,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F11=G11,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J11=K11,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N11=O11,"P","F")</t>
+  </si>
+  <si>
     <t>!!!!!!!!!!</t>
   </si>
   <si>
+    <t>"=IF(R11=S11,"P","F")</t>
+  </si>
+  <si>
     <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxx</t>
   </si>
   <si>
+    <t>"=IF(B12=C12,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F12=G12,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J12=K12,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N12=O12,"P","F")</t>
+  </si>
+  <si>
     <t>@@@@@@@@@@</t>
   </si>
   <si>
+    <t>"=IF(R12=S12,"P","F")</t>
+  </si>
+  <si>
     <t>123456789012345678901234567890123456789012345678901</t>
   </si>
   <si>
+    <t>"=IF(B13=C13,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F13=G13,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J13=K13,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N13=O13,"P","F")</t>
+  </si>
+  <si>
     <t>##########</t>
   </si>
   <si>
+    <t>"=IF(R13=S13,"P","F")</t>
+  </si>
+  <si>
     <t>_-</t>
   </si>
   <si>
+    <t>"=IF(B14=C14,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F14=G14,"P","F")</t>
+  </si>
+  <si>
     <t>_________</t>
   </si>
   <si>
+    <t>"=IF(J14=K14,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N14=O14,"P","F")</t>
+  </si>
+  <si>
     <t>$$$$$$$$$$</t>
   </si>
   <si>
+    <t>"=IF(R14=S14,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">    dd22</t>
   </si>
   <si>
+    <t>"=IF(B15=C15,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F15=G15,"P","F")</t>
+  </si>
+  <si>
     <t>----------</t>
   </si>
   <si>
+    <t>"=IF(J15=K15,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N15=O15,"P","F")</t>
+  </si>
+  <si>
     <t>%%%%%%%%%%%%</t>
   </si>
   <si>
+    <t>"=IF(R15=S15,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">dfad222    </t>
   </si>
   <si>
+    <t>"=IF(B16=C16,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F16=G16,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">    dd扽</t>
   </si>
   <si>
+    <t>"=IF(J16=K16,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">    dd想</t>
   </si>
   <si>
+    <t>"=IF(N16=O16,"P","F")</t>
+  </si>
+  <si>
     <t>^^^^^^^^^^^^</t>
   </si>
   <si>
+    <t>"=IF(R16=S16,"P","F")</t>
+  </si>
+  <si>
     <t>dfadsf 213dfa</t>
   </si>
   <si>
+    <t>"=IF(B17=C17,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F17=G17,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">dfad嗯嗯    </t>
   </si>
   <si>
+    <t>"=IF(J17=K17,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">dfad想    </t>
   </si>
   <si>
+    <t>"=IF(N17=O17,"P","F")</t>
+  </si>
+  <si>
     <t>&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;</t>
   </si>
   <si>
+    <t>"=IF(R17=S17,"P","F")</t>
+  </si>
+  <si>
     <t>!!!!!</t>
   </si>
   <si>
+    <t>"=IF(B18=C18,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F18=G18,"P","F")</t>
+  </si>
+  <si>
     <t>dfadsf 的dfa</t>
   </si>
   <si>
+    <t>"=IF(J18=K18,"P","F")</t>
+  </si>
+  <si>
     <t>dfadsf 想dfa</t>
   </si>
   <si>
+    <t>"=IF(N18=O18,"P","F")</t>
+  </si>
+  <si>
     <t>**************</t>
   </si>
   <si>
+    <t>"=IF(R18=S18,"P","F")</t>
+  </si>
+  <si>
     <t>@@@@@</t>
   </si>
   <si>
+    <t>"=IF(B19=C19,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F19=G19,"P","F")</t>
+  </si>
+  <si>
     <t>你 的发疯ide21 dad</t>
   </si>
   <si>
+    <t>"=IF(J19=K19,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N19=O19,"P","F")</t>
+  </si>
+  <si>
     <t>((((((((((((</t>
   </si>
   <si>
+    <t>"=IF(R19=S19,"P","F")</t>
+  </si>
+  <si>
     <t>#####</t>
   </si>
   <si>
+    <t>"=IF(B20=C20,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F20=G20,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J20=K20,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N20=O20,"P","F")</t>
+  </si>
+  <si>
     <t>))))))))))))</t>
   </si>
   <si>
+    <t>"=IF(R20=S20,"P","F")</t>
+  </si>
+  <si>
     <t>$$$$$</t>
   </si>
   <si>
+    <t>"=IF(B21=C21,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F21=G21,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J21=K21,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N21=O21,"P","F")</t>
+  </si>
+  <si>
     <t>++++++++++</t>
   </si>
   <si>
+    <t>"=IF(R21=S21,"P","F")</t>
+  </si>
+  <si>
     <t>%%%%%%</t>
   </si>
   <si>
+    <t>"=IF(B22=C22,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F22=G22,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J22=K22,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N22=O22,"P","F")</t>
+  </si>
+  <si>
     <t>````````````</t>
   </si>
   <si>
+    <t>"=IF(R22=S22,"P","F")</t>
+  </si>
+  <si>
     <t>^^^^^^</t>
   </si>
   <si>
+    <t>"=IF(B23=C23,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F23=G23,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J23=K23,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N23=O23,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(R23=S23,"P","F")</t>
+  </si>
+  <si>
     <t>&amp;&amp;&amp;&amp;&amp;&amp;</t>
   </si>
   <si>
+    <t>"=IF(B24=C24,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F24=G24,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J24=K24,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N24=O24,"P","F")</t>
+  </si>
+  <si>
     <t>{{{{{{{{{{{{{{</t>
   </si>
   <si>
+    <t>"=IF(R24=S24,"P","F")</t>
+  </si>
+  <si>
     <t>*******</t>
   </si>
   <si>
+    <t>"=IF(B25=C25,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F25=G25,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J25=K25,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N25=O25,"P","F")</t>
+  </si>
+  <si>
     <t>}}}}}}}}}}}}</t>
   </si>
   <si>
+    <t>"=IF(R25=S25,"P","F")</t>
+  </si>
+  <si>
     <t>((((((</t>
   </si>
   <si>
+    <t>"=IF(B26=C26,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F26=G26,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J26=K26,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N26=O26,"P","F")</t>
+  </si>
+  <si>
     <t>||||||||||||||</t>
   </si>
   <si>
+    <t>"=IF(R26=S26,"P","F")</t>
+  </si>
+  <si>
     <t>))))))</t>
   </si>
   <si>
+    <t>"=IF(B27=C27,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F27=G27,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J27=K27,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N27=O27,"P","F")</t>
+  </si>
+  <si>
     <t>::::::::::::::</t>
   </si>
   <si>
+    <t>"=IF(R27=S27,"P","F")</t>
+  </si>
+  <si>
     <t>++++++</t>
   </si>
   <si>
+    <t>"=IF(B28=C28,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F28=G28,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J28=K28,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N28=O28,"P","F")</t>
+  </si>
+  <si>
     <t>"""""""""""""</t>
   </si>
   <si>
+    <t>"=IF(R28=S28,"P","F")</t>
+  </si>
+  <si>
     <t>``````</t>
   </si>
   <si>
+    <t>"=IF(B29=C29,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F29=G29,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J29=K29,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N29=O29,"P","F")</t>
+  </si>
+  <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
   </si>
   <si>
+    <t>"=IF(R29=S29,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(B30=C30,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F30=G30,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J30=K30,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N30=O30,"P","F")</t>
+  </si>
+  <si>
     <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
+    <t>"=IF(R30=S30,"P","F")</t>
+  </si>
+  <si>
     <t>{{{{{{{</t>
   </si>
   <si>
+    <t>"=IF(B31=C31,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F31=G31,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J31=K31,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N31=O31,"P","F")</t>
+  </si>
+  <si>
     <t>????????????</t>
   </si>
   <si>
+    <t>"=IF(R31=S31,"P","F")</t>
+  </si>
+  <si>
     <t>}}}}}}</t>
   </si>
   <si>
+    <t>"=IF(B32=C32,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F32=G32,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J32=K32,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N32=O32,"P","F")</t>
+  </si>
+  <si>
     <t>[[[[[[[[[[[[</t>
   </si>
   <si>
+    <t>"=IF(R32=S32,"P","F")</t>
+  </si>
+  <si>
     <t>|||||||</t>
   </si>
   <si>
+    <t>"=IF(B33=C33,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F33=G33,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J33=K33,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N33=O33,"P","F")</t>
+  </si>
+  <si>
     <t>]]]]]]]]]]]]</t>
   </si>
   <si>
+    <t>"=IF(R33=S33,"P","F")</t>
+  </si>
+  <si>
     <t>:::::::</t>
   </si>
   <si>
+    <t>"=IF(B34=C34,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F34=G34,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J34=K34,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N34=O34,"P","F")</t>
+  </si>
+  <si>
     <t>\\\\\\\\\\\\</t>
   </si>
   <si>
+    <t>"=IF(R34=S34,"P","F")</t>
+  </si>
+  <si>
     <t>""""""</t>
   </si>
   <si>
+    <t>"=IF(B35=C35,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F35=G35,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J35=K35,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N35=O35,"P","F")</t>
+  </si>
+  <si>
     <t>;;;;;;;;;;;;</t>
   </si>
   <si>
+    <t>"=IF(R35=S35,"P","F")</t>
+  </si>
+  <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;</t>
   </si>
   <si>
+    <t>"=IF(B36=C36,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F36=G36,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J36=K36,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N36=O36,"P","F")</t>
+  </si>
+  <si>
     <t>'''''''''''</t>
   </si>
   <si>
+    <t>"=IF(R36=S36,"P","F")</t>
+  </si>
+  <si>
     <t>&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
+    <t>"=IF(B37=C37,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F37=G37,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J37=K37,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N37=O37,"P","F")</t>
+  </si>
+  <si>
     <t>,,,,,,,,,,,,,,</t>
   </si>
   <si>
+    <t>"=IF(R37=S37,"P","F")</t>
+  </si>
+  <si>
     <t>??????</t>
   </si>
   <si>
+    <t>"=IF(B38=C38,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F38=G38,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J38=K38,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N38=O38,"P","F")</t>
+  </si>
+  <si>
     <t>.....................</t>
   </si>
   <si>
+    <t>"=IF(R38=S38,"P","F")</t>
+  </si>
+  <si>
     <t>[[[[[[</t>
   </si>
   <si>
+    <t>"=IF(B39=C39,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F39=G39,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J39=K39,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N39=O39,"P","F")</t>
+  </si>
+  <si>
     <t>////////////</t>
   </si>
   <si>
+    <t>"=IF(R39=S39,"P","F")</t>
+  </si>
+  <si>
     <t>]]]]]]</t>
   </si>
   <si>
+    <t>"=IF(B40=C40,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F40=G40,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J40=K40,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N40=O40,"P","F")</t>
+  </si>
+  <si>
     <t>-----------------------</t>
   </si>
   <si>
+    <t>"=IF(R40=S40,"P","F")</t>
+  </si>
+  <si>
     <t>\\\\\\</t>
   </si>
   <si>
+    <t>"=IF(B41=C41,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F41=G41,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J41=K41,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N41=O41,"P","F")</t>
+  </si>
+  <si>
     <t>___________________________</t>
   </si>
   <si>
+    <t>"=IF(R41=S41,"P","F")</t>
+  </si>
+  <si>
     <t>;;;;;;</t>
   </si>
   <si>
+    <t>"=IF(B42=C42,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F42=G42,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J42=K42,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N42=O42,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">   1234567890</t>
   </si>
   <si>
+    <t>"=IF(R42=S42,"P","F")</t>
+  </si>
+  <si>
     <t>''''''</t>
   </si>
   <si>
+    <t>"=IF(B43=C43,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F43=G43,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J43=K43,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N43=O43,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">1234567890  </t>
   </si>
   <si>
+    <t>"=IF(R43=S43,"P","F")</t>
+  </si>
+  <si>
     <t>,,,,,,,</t>
   </si>
   <si>
+    <t>"=IF(B44=C44,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F44=G44,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J44=K44,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N44=O44,"P","F")</t>
+  </si>
+  <si>
     <t>1315 51615</t>
   </si>
   <si>
+    <t>"=IF(R44=S44,"P","F")</t>
+  </si>
+  <si>
     <t>.......</t>
   </si>
   <si>
+    <t>"=IF(B45=C45,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(F45=G45,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(J45=K45,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N45=O45,"P","F")</t>
+  </si>
+  <si>
     <t>你的发掘</t>
   </si>
   <si>
+    <t>"=IF(R45=S45,"P","F")</t>
+  </si>
+  <si>
     <t>//////</t>
   </si>
   <si>
+    <t>"=IF(N46=O46,"P","F")</t>
+  </si>
+  <si>
     <t>dfiandfa</t>
   </si>
   <si>
+    <t>"=IF(R46=S46,"P","F")</t>
+  </si>
+  <si>
     <t>你好dfadf</t>
   </si>
   <si>
+    <t>"=IF(N47=O47,"P","F")</t>
+  </si>
+  <si>
     <t>中文dfadfja</t>
   </si>
   <si>
+    <t>"=IF(R47=S47,"P","F")</t>
+  </si>
+  <si>
     <t>你好！@#</t>
   </si>
   <si>
+    <t>"=IF(N48=O48,"P","F")</t>
+  </si>
+  <si>
     <t>中文123123</t>
   </si>
   <si>
+    <t>"=IF(R48=S48,"P","F")</t>
+  </si>
+  <si>
     <t>你好dad341#@4</t>
   </si>
   <si>
     <t>你好dfadf12312</t>
   </si>
   <si>
+    <t>"=IF(N49=O49,"P","F")</t>
+  </si>
+  <si>
     <t>dfada231312</t>
   </si>
   <si>
+    <t>"=IF(R49=S49,"P","F")</t>
+  </si>
+  <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
+    <t>"=IF(N50=O50,"P","F")</t>
+  </si>
+  <si>
     <t>你的$#!@#$</t>
   </si>
   <si>
+    <t>"=IF(R50=S50,"P","F")</t>
+  </si>
+  <si>
+    <t>"=IF(N51=O51,"P","F")</t>
+  </si>
+  <si>
     <t>dfadfad#@!$@#</t>
   </si>
   <si>
+    <t>"=IF(R51=S51,"P","F")</t>
+  </si>
+  <si>
     <t>3413#$!#</t>
   </si>
   <si>
@@ -443,38 +1133,28 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -489,66 +1169,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -836,16 +1476,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +1551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -917,9 +1561,8 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="str">
-        <f>IF(B2=C2,"P","F")</f>
-        <v>P</v>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -930,52 +1573,48 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H50" si="0">IF(F2=G2,"P","F")</f>
-        <v>P</v>
+      <c r="H2" t="s">
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L52" si="1">IF(J2=K2,"P","F")</f>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P52" si="2">IF(N2=O2,"P","F")</f>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="str">
-        <f t="shared" ref="T2:T54" si="3">IF(R2=S2,"P","F")</f>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -984,11 +1623,10 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D50" si="4">IF(B3=C3,"P","F")</f>
-        <v>P</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -997,53 +1635,49 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
-      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1051,12 +1685,11 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D4" t="s">
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1064,299 +1697,317 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H4" t="s">
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s">
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>47</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>49</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s">
+        <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>53</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s">
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>53</v>
+      </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>56</v>
+      </c>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>58</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s">
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>62</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>62</v>
+      </c>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>69</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s">
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>69</v>
+      </c>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>72</v>
+      </c>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>74</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s">
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>78</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s">
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>78</v>
+      </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>81</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>83</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s">
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>87</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s">
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>87</v>
+      </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>87</v>
+      </c>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>87</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s">
+        <v>91</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1364,12 +2015,11 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D11" t="s">
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -1377,53 +2027,49 @@
       <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H11" t="s">
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>98</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1431,12 +2077,11 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D12" t="s">
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -1444,53 +2089,49 @@
       <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H12" t="s">
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>104</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>105</v>
       </c>
       <c r="Q12" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="R12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S12" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1498,12 +2139,11 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D13" t="s">
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -1511,206 +2151,203 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H13" t="s">
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>111</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>112</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="R13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>115</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s">
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>115</v>
+      </c>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>120</v>
       </c>
       <c r="Q14" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="R14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>123</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s">
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>123</v>
+      </c>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>128</v>
       </c>
       <c r="Q15" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="R15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+        <v>131</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s">
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>131</v>
+      </c>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>134</v>
+      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>135</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>136</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s">
+        <v>137</v>
       </c>
       <c r="Q16" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="R16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S16" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1718,12 +2355,11 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D17" t="s">
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -1731,41 +2367,41 @@
       <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H17" t="s">
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>143</v>
+      </c>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>144</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>145</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s">
+        <v>146</v>
       </c>
       <c r="Q17" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="R17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S17" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1773,12 +2409,11 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D18" t="s">
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -1786,47 +2421,45 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H18" t="s">
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>152</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>153</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>155</v>
       </c>
       <c r="Q18" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="R18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1834,12 +2467,11 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D19" t="s">
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
@@ -1847,53 +2479,49 @@
       <c r="G19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H19" t="s">
+        <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>163</v>
       </c>
       <c r="Q19" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="R19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1901,12 +2529,11 @@
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D20" t="s">
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -1914,53 +2541,49 @@
       <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H20" t="s">
+        <v>168</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
       </c>
       <c r="M20" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>170</v>
       </c>
       <c r="Q20" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S20" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1968,12 +2591,11 @@
       <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D21" t="s">
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -1981,53 +2603,49 @@
       <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H21" t="s">
+        <v>175</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>177</v>
       </c>
       <c r="Q21" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="R21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S21" t="s">
-        <v>25</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2035,12 +2653,11 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D22" t="s">
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -2048,53 +2665,49 @@
       <c r="G22" t="s">
         <v>21</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H22" t="s">
+        <v>182</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>184</v>
       </c>
       <c r="Q22" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="R22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -2102,12 +2715,11 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D23" t="s">
+        <v>188</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
         <v>21</v>
@@ -2115,50 +2727,50 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H23" t="s">
+        <v>189</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
       </c>
       <c r="M23" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q23">
+        <f>=====</f>
+        <v/>
       </c>
       <c r="R23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -2166,12 +2778,11 @@
       <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D24" t="s">
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
@@ -2179,53 +2790,49 @@
       <c r="G24" t="s">
         <v>21</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H24" t="s">
+        <v>195</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>197</v>
       </c>
       <c r="Q24" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="R24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S24" t="s">
-        <v>25</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -2233,12 +2840,11 @@
       <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D25" t="s">
+        <v>201</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
@@ -2246,53 +2852,49 @@
       <c r="G25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H25" t="s">
+        <v>202</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>204</v>
       </c>
       <c r="Q25" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="R25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -2300,12 +2902,11 @@
       <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D26" t="s">
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="F26" t="s">
         <v>21</v>
@@ -2313,53 +2914,49 @@
       <c r="G26" t="s">
         <v>21</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H26" t="s">
+        <v>209</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
       </c>
       <c r="M26" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>211</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="R26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S26" t="s">
-        <v>25</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -2367,12 +2964,11 @@
       <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D27" t="s">
+        <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
@@ -2380,53 +2976,49 @@
       <c r="G27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H27" t="s">
+        <v>216</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>217</v>
       </c>
       <c r="M27" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>218</v>
       </c>
       <c r="Q27" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="R27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -2434,12 +3026,11 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D28" t="s">
+        <v>222</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
@@ -2447,53 +3038,49 @@
       <c r="G28" t="s">
         <v>21</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H28" t="s">
+        <v>223</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>225</v>
       </c>
       <c r="Q28" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="R28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S28" t="s">
-        <v>25</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -2501,12 +3088,11 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D29" t="s">
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
@@ -2514,60 +3100,63 @@
       <c r="G29" t="s">
         <v>21</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H29" t="s">
+        <v>230</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>231</v>
       </c>
       <c r="M29" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>232</v>
       </c>
       <c r="Q29" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="R29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <f>=====</f>
+        <v/>
+      </c>
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30">
+        <f>=====</f>
+        <v/>
       </c>
       <c r="F30" t="s">
         <v>21</v>
@@ -2575,53 +3164,49 @@
       <c r="G30" t="s">
         <v>21</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H30" t="s">
+        <v>236</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>238</v>
       </c>
       <c r="Q30" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="R30" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -2629,12 +3214,11 @@
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D31" t="s">
+        <v>242</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
@@ -2642,53 +3226,49 @@
       <c r="G31" t="s">
         <v>21</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H31" t="s">
+        <v>243</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
       </c>
       <c r="M31" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>245</v>
       </c>
       <c r="Q31" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="R31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S31" t="s">
-        <v>25</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -2696,12 +3276,11 @@
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D32" t="s">
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
         <v>21</v>
@@ -2709,47 +3288,51 @@
       <c r="G32" t="s">
         <v>21</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H32" t="s">
+        <v>250</v>
+      </c>
+      <c r="I32">
+        <f>=====</f>
+        <v/>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32">
+        <f>=====</f>
+        <v/>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>252</v>
       </c>
       <c r="Q32" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="R32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -2757,12 +3340,11 @@
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D33" t="s">
+        <v>256</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F33" t="s">
         <v>21</v>
@@ -2770,53 +3352,49 @@
       <c r="G33" t="s">
         <v>21</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H33" t="s">
+        <v>257</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
       </c>
       <c r="M33" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>259</v>
       </c>
       <c r="Q33" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="R33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -2824,12 +3402,11 @@
       <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D34" t="s">
+        <v>263</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -2837,53 +3414,49 @@
       <c r="G34" t="s">
         <v>21</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H34" t="s">
+        <v>264</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>265</v>
       </c>
       <c r="M34" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>266</v>
       </c>
       <c r="Q34" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="R34" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -2891,12 +3464,11 @@
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D35" t="s">
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
@@ -2904,53 +3476,49 @@
       <c r="G35" t="s">
         <v>21</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H35" t="s">
+        <v>271</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P35" t="s">
+        <v>273</v>
       </c>
       <c r="Q35" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="R35" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -2958,12 +3526,11 @@
       <c r="C36" t="s">
         <v>21</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D36" t="s">
+        <v>277</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="F36" t="s">
         <v>21</v>
@@ -2971,53 +3538,49 @@
       <c r="G36" t="s">
         <v>21</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H36" t="s">
+        <v>278</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>279</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P36" t="s">
+        <v>280</v>
       </c>
       <c r="Q36" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="R36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -3025,12 +3588,11 @@
       <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D37" t="s">
+        <v>284</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
@@ -3038,53 +3600,49 @@
       <c r="G37" t="s">
         <v>21</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H37" t="s">
+        <v>285</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
       </c>
       <c r="M37" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>287</v>
       </c>
       <c r="Q37" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="R37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S37" t="s">
-        <v>25</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -3092,12 +3650,11 @@
       <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D38" t="s">
+        <v>291</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
@@ -3105,53 +3662,49 @@
       <c r="G38" t="s">
         <v>21</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H38" t="s">
+        <v>292</v>
       </c>
       <c r="I38" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>293</v>
       </c>
       <c r="M38" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P38" t="s">
+        <v>294</v>
       </c>
       <c r="Q38" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="R38" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S38" t="s">
-        <v>25</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -3159,12 +3712,11 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D39" t="s">
+        <v>298</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
@@ -3172,53 +3724,49 @@
       <c r="G39" t="s">
         <v>21</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H39" t="s">
+        <v>299</v>
       </c>
       <c r="I39" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>300</v>
       </c>
       <c r="M39" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P39" t="s">
+        <v>301</v>
       </c>
       <c r="Q39" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="R39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S39" t="s">
-        <v>25</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -3226,12 +3774,11 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D40" t="s">
+        <v>305</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
@@ -3239,53 +3786,49 @@
       <c r="G40" t="s">
         <v>21</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H40" t="s">
+        <v>306</v>
       </c>
       <c r="I40" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>307</v>
       </c>
       <c r="M40" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O40" t="s">
-        <v>23</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P40" t="s">
+        <v>308</v>
       </c>
       <c r="Q40" t="s">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="R40" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -3293,12 +3836,11 @@
       <c r="C41" t="s">
         <v>21</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D41" t="s">
+        <v>312</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="F41" t="s">
         <v>21</v>
@@ -3306,53 +3848,49 @@
       <c r="G41" t="s">
         <v>21</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H41" t="s">
+        <v>313</v>
       </c>
       <c r="I41" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>314</v>
       </c>
       <c r="M41" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P41" t="s">
+        <v>315</v>
       </c>
       <c r="Q41" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
       <c r="R41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -3360,12 +3898,11 @@
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D42" t="s">
+        <v>319</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
@@ -3373,47 +3910,45 @@
       <c r="G42" t="s">
         <v>21</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H42" t="s">
+        <v>320</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>321</v>
       </c>
       <c r="M42" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O42" t="s">
-        <v>23</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P42" t="s">
+        <v>322</v>
       </c>
       <c r="Q42" t="s">
-        <v>119</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -3421,12 +3956,11 @@
       <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D43" t="s">
+        <v>326</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="F43" t="s">
         <v>21</v>
@@ -3434,47 +3968,45 @@
       <c r="G43" t="s">
         <v>21</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H43" t="s">
+        <v>327</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
       </c>
       <c r="M43" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O43" t="s">
-        <v>23</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P43" t="s">
+        <v>329</v>
       </c>
       <c r="Q43" t="s">
-        <v>121</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
@@ -3482,12 +4014,11 @@
       <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D44" t="s">
+        <v>333</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="F44" t="s">
         <v>21</v>
@@ -3495,53 +4026,49 @@
       <c r="G44" t="s">
         <v>21</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H44" t="s">
+        <v>334</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
       </c>
       <c r="M44" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>336</v>
       </c>
       <c r="Q44" t="s">
-        <v>123</v>
+        <v>337</v>
       </c>
       <c r="R44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S44" t="s">
-        <v>25</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -3549,12 +4076,11 @@
       <c r="C45" t="s">
         <v>21</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
+      <c r="D45" t="s">
+        <v>340</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="F45" t="s">
         <v>21</v>
@@ -3562,53 +4088,49 @@
       <c r="G45" t="s">
         <v>21</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+      <c r="H45" t="s">
+        <v>341</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>342</v>
       </c>
       <c r="M45" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O45" t="s">
-        <v>23</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>343</v>
       </c>
       <c r="Q45" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="R45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S45" t="s">
-        <v>25</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -3616,12 +4138,9 @@
       <c r="C46" t="s">
         <v>21</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
+      <c r="D46" t="s"/>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="F46" t="s">
         <v>21</v>
@@ -3629,108 +4148,93 @@
       <c r="G46" t="s">
         <v>21</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
+      <c r="H46" t="s"/>
       <c r="I46" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L46" t="s"/>
       <c r="M46" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O46" t="s">
-        <v>23</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>347</v>
       </c>
       <c r="Q46" t="s">
-        <v>127</v>
+        <v>348</v>
       </c>
       <c r="R46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S46" t="s">
-        <v>25</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="s"/>
       <c r="E47" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="F47" t="s"/>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s"/>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L47" t="s"/>
       <c r="M47" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O47" t="s">
-        <v>23</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P47" t="s">
+        <v>351</v>
       </c>
       <c r="Q47" t="s">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="R47" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S47" t="s">
-        <v>25</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -3738,12 +4242,9 @@
       <c r="C48" t="s">
         <v>21</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
+      <c r="D48" t="s"/>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="F48" t="s">
         <v>21</v>
@@ -3751,53 +4252,45 @@
       <c r="G48" t="s">
         <v>21</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
+      <c r="H48" t="s"/>
       <c r="I48" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L48" t="s"/>
       <c r="M48" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O48" t="s">
-        <v>23</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P48" t="s">
+        <v>355</v>
       </c>
       <c r="Q48" t="s">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="R48" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S48" t="s">
-        <v>25</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -3805,12 +4298,9 @@
       <c r="C49" t="s">
         <v>21</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
+      <c r="D49" t="s"/>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="F49" t="s">
         <v>21</v>
@@ -3818,47 +4308,41 @@
       <c r="G49" t="s">
         <v>21</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
+      <c r="H49" t="s"/>
       <c r="I49" t="s">
-        <v>128</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="J49" t="s"/>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
       <c r="M49" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P49" t="s">
+        <v>360</v>
       </c>
       <c r="Q49" t="s">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="R49" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -3866,12 +4350,9 @@
       <c r="C50" t="s">
         <v>21</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="4"/>
-        <v>P</v>
-      </c>
+      <c r="D50" t="s"/>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -3879,173 +4360,183 @@
       <c r="G50" t="s">
         <v>21</v>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
+      <c r="H50" t="s"/>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L50" t="s"/>
       <c r="M50" t="s">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O50" t="s">
-        <v>23</v>
-      </c>
-      <c r="P50" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P50" t="s">
+        <v>364</v>
       </c>
       <c r="Q50" t="s">
-        <v>136</v>
+        <v>365</v>
       </c>
       <c r="R50" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S50" t="s">
-        <v>25</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" t="s"/>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="s"/>
+      <c r="E51" t="s"/>
+      <c r="F51" t="s"/>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s"/>
       <c r="I51" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L51" t="s"/>
       <c r="M51" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O51" t="s">
-        <v>23</v>
-      </c>
-      <c r="P51" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <v>26</v>
+      </c>
+      <c r="P51" t="s">
+        <v>367</v>
       </c>
       <c r="Q51" t="s">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="R51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S51" t="s">
-        <v>25</v>
-      </c>
-      <c r="T51" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" t="s"/>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="s"/>
+      <c r="E52" t="s"/>
+      <c r="F52" t="s"/>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s"/>
       <c r="I52" t="s">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L52" t="s"/>
       <c r="M52" t="s">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O52" t="s">
-        <v>23</v>
-      </c>
-      <c r="P52" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="s">
-        <v>138</v>
+        <v>370</v>
       </c>
       <c r="R52" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S52" t="s">
-        <v>25</v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T52" t="s"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" t="s"/>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="s"/>
+      <c r="E53" t="s"/>
+      <c r="F53" t="s"/>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
       <c r="Q53" t="s">
-        <v>139</v>
+        <v>371</v>
       </c>
       <c r="R53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S53" t="s">
-        <v>25</v>
-      </c>
-      <c r="T53" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="T53" t="s"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" t="s"/>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="s"/>
+      <c r="E54" t="s"/>
+      <c r="F54" t="s"/>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
       <c r="Q54" t="s">
-        <v>140</v>
+        <v>372</v>
       </c>
       <c r="R54" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S54" t="s">
-        <v>25</v>
-      </c>
-      <c r="T54" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="T54" t="s"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>